--- a/dest/Application Assessment.xlsx
+++ b/dest/Application Assessment.xlsx
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mainte   ce Ops / Operating Model</t>
+          <t>Maintenance Ops / Operating Model</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>

--- a/dest/Application Assessment.xlsx
+++ b/dest/Application Assessment.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#Servers</t>
+          <t># of Servers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>

--- a/dest/Application Assessment.xlsx
+++ b/dest/Application Assessment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Theme</t>
+          <t>Area</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data &amp; AI</t>
+          <t>Business Concern</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t># of Servers</t>
+          <t>Compliance (PCIDSS...)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -478,12 +478,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Data &amp; AI</t>
+          <t>Business Concern</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Criticality</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -493,12 +493,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Data &amp; AI</t>
+          <t>Business Concern</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Analytics</t>
+          <t>Expected Behavior in case of failure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -508,12 +508,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Data &amp; AI</t>
+          <t>Business Concern</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cache</t>
+          <t>Penalties</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -523,12 +523,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Data &amp; AI</t>
+          <t>Business Concern</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Data Migration</t>
+          <t>RPO / RTO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -538,12 +538,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Data &amp; AI</t>
+          <t>Business Concern</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>File Server (size)</t>
+          <t>Regulatory Requirements (EU, GDPR...)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -553,12 +553,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Data &amp; AI</t>
+          <t>Business Concern</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lambda Architecture</t>
+          <t>Restriction on specific region / countries</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -568,12 +568,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Data &amp; AI</t>
+          <t>Business Concern</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Other / Misc</t>
+          <t>SLA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -583,12 +583,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Data &amp; AI</t>
+          <t>Business Concern</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RDBMS / NoSQL (Software vendor)</t>
+          <t>Top #3 of improvement points? Pain-points? Challenges?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -603,7 +603,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SOA (Kafka, RabbitMQ, MQ Series)</t>
+          <t># of Servers</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -613,12 +613,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hardware Core Infra</t>
+          <t>Data &amp; AI</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#Servers for App hosting (except DB)</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -628,12 +628,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hardware Core Infra</t>
+          <t>Data &amp; AI</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>App Location Hosting</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -643,12 +643,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hardware Core Infra</t>
+          <t>Data &amp; AI</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CPU</t>
+          <t>Cache</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -658,12 +658,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hardware Core Infra</t>
+          <t>Data &amp; AI</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Container Ready</t>
+          <t>Data Migration</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -673,12 +673,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hardware Core Infra</t>
+          <t>Data &amp; AI</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Disks</t>
+          <t>File Server (size)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -688,12 +688,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hardware Core Infra</t>
+          <t>Data &amp; AI</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Memory</t>
+          <t>Integration Tier (ETL, Solution)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -703,12 +703,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hardware Core Infra</t>
+          <t>Data &amp; AI</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>OS</t>
+          <t>Lambda Architecture</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -718,7 +718,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Hardware Core Infra</t>
+          <t>Data &amp; AI</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -733,12 +733,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hardware Core Infra</t>
+          <t>Data &amp; AI</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Virtualization</t>
+          <t>RDBMS / NoSQL (Software vendor)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -748,12 +748,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Infrastructure</t>
+          <t>Data &amp; AI</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>SOA (Kafka, RabbitMQ, MQ Series)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -763,12 +763,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Infrastructure</t>
+          <t>Hardware Core Infra</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Certificates</t>
+          <t>#Servers for App hosting (except DB)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -778,12 +778,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Infrastructure</t>
+          <t>Hardware Core Infra</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>App Location Hosting</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -793,12 +793,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Infrastructure</t>
+          <t>Hardware Core Infra</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Identity Management for External users</t>
+          <t>CPU</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -808,12 +808,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Infrastructure</t>
+          <t>Hardware Core Infra</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Identity Management for Internal users</t>
+          <t>Container Ready</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -823,12 +823,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Infrastructure</t>
+          <t>Hardware Core Infra</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Infra Monitoring</t>
+          <t>Disks</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -838,12 +838,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Infrastructure</t>
+          <t>Hardware Core Infra</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Other / Misc</t>
+          <t>Memory</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -853,12 +853,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Metrics</t>
+          <t>Hardware Core Infra</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t># of Messages, calls, requests / days/month/year</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -868,12 +868,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Metrics</t>
+          <t>Hardware Core Infra</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>#RPS (Request per seconds)</t>
+          <t>Other / Misc</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -883,12 +883,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Metrics</t>
+          <t>Hardware Core Infra</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>#Simultaneous users</t>
+          <t>Virtualization</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Metrics</t>
+          <t>Infrastructure</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>#Total Users</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -913,12 +913,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Metrics</t>
+          <t>Infrastructure</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DB Increase</t>
+          <t>Certificates</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -928,12 +928,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Metrics</t>
+          <t>Infrastructure</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DB Size</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -943,12 +943,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Metrics</t>
+          <t>Infrastructure</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Other / Misc</t>
+          <t>Identity Management for External users</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -958,12 +958,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Metrics</t>
+          <t>Infrastructure</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transations / RPS</t>
+          <t>Identity Management for Internal users</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -973,12 +973,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Network</t>
+          <t>Infrastructure</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Firewall, Load Balancer</t>
+          <t>Infra Monitoring</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -988,12 +988,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Network</t>
+          <t>Infrastructure</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Network / Cloud virtual Network / Landing Zone</t>
+          <t>Other / Misc</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1003,12 +1003,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Network</t>
+          <t>Metrics</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Other / Misc</t>
+          <t># of Messages, calls, requests / days/month/year</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1018,12 +1018,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Network</t>
+          <t>Metrics</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Private or public Internet Endpoints</t>
+          <t>#RPS (Request per seconds)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Metrics</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Expected release cycles (i.e. updates frequency)</t>
+          <t>#Simultaneous users</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1048,12 +1048,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Metrics</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Maintenance Ops / Operating Model</t>
+          <t>#Total Users</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1063,12 +1063,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Metrics</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Other / Misc</t>
+          <t>DB Increase</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1078,12 +1078,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Metrics</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Project Documentation (diagrams, technical specs…)Describes here the shared files</t>
+          <t>DB Size</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1093,12 +1093,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Metrics</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Skilling Plan</t>
+          <t>High bandwidth?</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1108,12 +1108,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Metrics</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Software Delivery model (N/A, online/SaaS, ISV Setup…)</t>
+          <t>Other / Misc</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1123,12 +1123,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Metrics</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Software methodology (DevOps, Agile, CMMI, SAFE…)</t>
+          <t>Transations / RPS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1138,12 +1138,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Network</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Update Management (continuous/online, disconnected…)</t>
+          <t>Firewall, Load Balancer</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1153,12 +1153,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Network</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Who Run?</t>
+          <t>Hybrid Connectivity (on-premises - Cloud)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1168,12 +1168,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Network</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Who build?</t>
+          <t>Network / Cloud virtual Network / Landing Zone</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1183,12 +1183,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Software Services</t>
+          <t>Network</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>API Management</t>
+          <t>Other / Misc</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1198,12 +1198,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Software Services</t>
+          <t>Network</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Application Performance Monitoring</t>
+          <t>Private or public Internet Endpoints</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1213,12 +1213,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Software Services</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DevOps / DevSecOps</t>
+          <t># of env. (DEV, UAT, PROD…)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1228,12 +1228,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Software Services</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Service Registry / Mesh</t>
+          <t>Application Name</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1243,12 +1243,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Software Specifications</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3rd party components</t>
+          <t>Application exposition (internal, external, both)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1258,12 +1258,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Software Specifications</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Dependency on external solution or services (SaaS)</t>
+          <t>Compute unit segregation</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1273,12 +1273,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Software Specifications</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Dependency on on-premises IS</t>
+          <t>Data and compute unit segregation</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1288,12 +1288,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Software Specifications</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Libraries, SDK, Runtimes</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1303,12 +1303,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Software Specifications</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Monolith / Micro-Services</t>
+          <t>External users</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1318,12 +1318,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Software Specifications</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>OSS Dependencies</t>
+          <t>Multi-tenancy model</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1333,12 +1333,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Software Specifications</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Other / Misc</t>
+          <t>Seasonality (Activity Peaks)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1348,12 +1348,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Software Specifications</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Programming Language (Front, Middle, Back, Mobile)</t>
+          <t>Type (Web/API, Mobile, Desktop, PowerApps/RIA, Office, EAI)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1363,12 +1363,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Software Specifications</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Software Stack (MEAN, MERN, LAMP...)</t>
+          <t>User localization</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1378,17 +1378,497 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Software Specifications</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>libraries (+ associated Licensing model)</t>
+          <t>Expected release cycles (i.e. updates frequency)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Maintenance Ops / Operating Model</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Other / Misc</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Project Documentation (diagrams, technical specs…)Describes here the shared files</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Skilling Plan</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Software Delivery model (N/A, online/SaaS, ISV Setup…)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Software methodology (DevOps, Agile, CMMI, SAFE…)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Update Management (continuous/online, disconnected…)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Who Run?</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Who build?</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Authentication/Authorization Mechanisms</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Cookies, Session Management</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Cryptographic Algorithms (DES/3DES/AES/MD5 Hash/SHA1...)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Key Vault Management</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>MFA, Conditional Access</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Other / Misc</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Security Constraints</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>VPN</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Software Services</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>API Management</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Software Services</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Application Performance Monitoring</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Software Services</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>DevOps / DevSecOps</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Software Services</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Service Registry / Mesh</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Software Specifications</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>3rd party components</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Software Specifications</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Dependency on external solution or services (SaaS)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Software Specifications</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Dependency on on-premises IS</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Software Specifications</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Libraries, SDK, Runtimes</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Software Specifications</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Monolith / Micro-Services</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Software Specifications</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>OSS Dependencies</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Software Specifications</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Other / Misc</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Software Specifications</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Programming Language (Front, Middle, Back, Mobile)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Software Specifications</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Software Stack (MEAN, MERN, LAMP...)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Software Specifications</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Sticky sessions</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Software Specifications</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>libraries (+ associated Licensing model)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dest/Application Assessment.xlsx
+++ b/dest/Application Assessment.xlsx
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Business Concern</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Compliance (PCIDSS...)</t>
+          <t>Application Name</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -478,12 +478,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Business Concern</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Criticality</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -493,12 +493,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Business Concern</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Expected Behavior in case of failure</t>
+          <t>Type (Web/API, Mobile, Desktop, PowerApps/RIA, Office, EAI)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -508,12 +508,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Business Concern</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Penalties</t>
+          <t>Multi-tenancy model</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -523,12 +523,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Business Concern</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RPO / RTO</t>
+          <t>Data and compute unit segregation</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -538,12 +538,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Business Concern</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Regulatory Requirements (EU, GDPR...)</t>
+          <t>Compute unit segregation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -553,12 +553,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Business Concern</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Restriction on specific region / countries</t>
+          <t>Seasonality (Activity Peaks)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -568,12 +568,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Business Concern</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SLA</t>
+          <t>Application exposition (internal, external, both)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -583,12 +583,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Business Concern</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Top #3 of improvement points? Pain-points? Challenges?</t>
+          <t>User localization</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -598,12 +598,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Data &amp; AI</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t># of Servers</t>
+          <t>External users</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -613,12 +613,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Data &amp; AI</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t># of env. (DEV, UAT, PROD…)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -628,12 +628,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Data &amp; AI</t>
+          <t>Business Concern</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Analytics</t>
+          <t>Criticality</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -643,12 +643,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Data &amp; AI</t>
+          <t>Business Concern</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cache</t>
+          <t>SLA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -658,12 +658,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Data &amp; AI</t>
+          <t>Business Concern</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Data Migration</t>
+          <t>RPO / RTO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -673,12 +673,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Data &amp; AI</t>
+          <t>Business Concern</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>File Server (size)</t>
+          <t>Penalties</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -688,12 +688,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Data &amp; AI</t>
+          <t>Business Concern</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Integration Tier (ETL, Solution)</t>
+          <t>Expected Behavior in case of failure</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -703,12 +703,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Data &amp; AI</t>
+          <t>Business Concern</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Lambda Architecture</t>
+          <t>Restriction on specific region / countries</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -718,12 +718,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Data &amp; AI</t>
+          <t>Business Concern</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Other / Misc</t>
+          <t>Compliance (PCIDSS...)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -733,12 +733,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Data &amp; AI</t>
+          <t>Business Concern</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RDBMS / NoSQL (Software vendor)</t>
+          <t>Regulatory Requirements (EU, GDPR...)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -748,12 +748,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Data &amp; AI</t>
+          <t>Business Concern</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SOA (Kafka, RabbitMQ, MQ Series)</t>
+          <t>Top #3 of improvement points? Pain-points? Challenges?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -798,7 +798,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CPU</t>
+          <t>Container Ready</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -813,7 +813,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Container Ready</t>
+          <t>CPU</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -898,12 +898,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Infrastructure</t>
+          <t>Network</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Firewall, Load Balancer</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -913,12 +913,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Infrastructure</t>
+          <t>Network</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Certificates</t>
+          <t>Network / Cloud virtual Network / Landing Zone</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -928,12 +928,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Infrastructure</t>
+          <t>Network</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Private or public Internet Endpoints</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -943,12 +943,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Infrastructure</t>
+          <t>Network</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Identity Management for External users</t>
+          <t>Hybrid Connectivity (on-premises - Cloud)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -958,12 +958,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Infrastructure</t>
+          <t>Network</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Identity Management for Internal users</t>
+          <t>Other / Misc</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -978,7 +978,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Infra Monitoring</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Other / Misc</t>
+          <t>Certificates</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1003,12 +1003,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Metrics</t>
+          <t>Infrastructure</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t># of Messages, calls, requests / days/month/year</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1018,12 +1018,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Metrics</t>
+          <t>Infrastructure</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>#RPS (Request per seconds)</t>
+          <t>Identity Management for External users</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Metrics</t>
+          <t>Infrastructure</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>#Simultaneous users</t>
+          <t>Identity Management for Internal users</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1048,12 +1048,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Metrics</t>
+          <t>Infrastructure</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>#Total Users</t>
+          <t>Infra Monitoring</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1063,12 +1063,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Metrics</t>
+          <t>Infrastructure</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DB Increase</t>
+          <t>Other / Misc</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1078,12 +1078,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Metrics</t>
+          <t>Data &amp; AI</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DB Size</t>
+          <t># of Servers</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1093,12 +1093,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Metrics</t>
+          <t>Data &amp; AI</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>High bandwidth?</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1108,12 +1108,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Metrics</t>
+          <t>Data &amp; AI</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Other / Misc</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1123,12 +1123,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Metrics</t>
+          <t>Data &amp; AI</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transations / RPS</t>
+          <t>Cache</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1138,12 +1138,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Network</t>
+          <t>Data &amp; AI</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Firewall, Load Balancer</t>
+          <t>Data Migration</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1153,12 +1153,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Network</t>
+          <t>Data &amp; AI</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Hybrid Connectivity (on-premises - Cloud)</t>
+          <t>File Server (size)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1168,12 +1168,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Network</t>
+          <t>Data &amp; AI</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Network / Cloud virtual Network / Landing Zone</t>
+          <t>Lambda Architecture</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Network</t>
+          <t>Data &amp; AI</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1198,12 +1198,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Network</t>
+          <t>Data &amp; AI</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Private or public Internet Endpoints</t>
+          <t>RDBMS / NoSQL (Software vendor)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1213,12 +1213,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Data &amp; AI</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t># of env. (DEV, UAT, PROD…)</t>
+          <t>SOA (Kafka, RabbitMQ, MQ Series)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1228,12 +1228,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Data &amp; AI</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Application Name</t>
+          <t>Integration Tier (ETL, Solution)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1243,12 +1243,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Software Specifications</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Application exposition (internal, external, both)</t>
+          <t>3rd party components</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1258,12 +1258,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Software Specifications</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Compute unit segregation</t>
+          <t>Dependency on external solution or services (SaaS)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1273,12 +1273,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Software Specifications</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Data and compute unit segregation</t>
+          <t>Dependency on on-premises IS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1288,12 +1288,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Software Specifications</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>libraries (+ associated Licensing model)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1303,12 +1303,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Software Specifications</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>External users</t>
+          <t>Libraries, SDK, Runtimes</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1318,12 +1318,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Software Specifications</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Multi-tenancy model</t>
+          <t>Monolith / Micro-Services</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1333,12 +1333,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Software Specifications</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Seasonality (Activity Peaks)</t>
+          <t>Sticky sessions</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1348,12 +1348,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Software Specifications</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Type (Web/API, Mobile, Desktop, PowerApps/RIA, Office, EAI)</t>
+          <t>OSS Dependencies</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1363,12 +1363,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Software Specifications</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>User localization</t>
+          <t>Other / Misc</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1378,12 +1378,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Software Specifications</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Expected release cycles (i.e. updates frequency)</t>
+          <t>Programming Language (Front, Middle, Back, Mobile)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1393,12 +1393,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Software Specifications</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Maintenance Ops / Operating Model</t>
+          <t>Software Stack (MEAN, MERN, LAMP...)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1408,12 +1408,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Software Services</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Other / Misc</t>
+          <t>API Management</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -1423,12 +1423,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Software Services</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Project Documentation (diagrams, technical specs…)Describes here the shared files</t>
+          <t>Application Performance Monitoring</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -1438,12 +1438,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Software Services</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Skilling Plan</t>
+          <t>DevOps / DevSecOps</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -1453,12 +1453,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Software Services</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Software Delivery model (N/A, online/SaaS, ISV Setup…)</t>
+          <t>Service Registry / Mesh</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -1468,12 +1468,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Metrics</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Software methodology (DevOps, Agile, CMMI, SAFE…)</t>
+          <t># of Messages, calls, requests / days/month/year</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -1483,12 +1483,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Metrics</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Update Management (continuous/online, disconnected…)</t>
+          <t>#RPS (Request per seconds)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -1498,12 +1498,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Metrics</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Who Run?</t>
+          <t>#Simultaneous users</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -1513,12 +1513,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Metrics</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Who build?</t>
+          <t>#Total Users</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -1528,12 +1528,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Metrics</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Authentication/Authorization Mechanisms</t>
+          <t>DB Increase</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -1543,12 +1543,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Metrics</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cookies, Session Management</t>
+          <t>DB Size</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -1558,12 +1558,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Metrics</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cryptographic Algorithms (DES/3DES/AES/MD5 Hash/SHA1...)</t>
+          <t>Transations / RPS</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -1573,12 +1573,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Metrics</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Key Vault Management</t>
+          <t>High bandwidth?</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -1588,12 +1588,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Metrics</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MFA, Conditional Access</t>
+          <t>Other / Misc</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Other / Misc</t>
+          <t>Security Constraints</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Security Constraints</t>
+          <t>Authentication/Authorization Mechanisms</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Cryptographic Algorithms (DES/3DES/AES/MD5 Hash/SHA1...)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -1648,12 +1648,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Software Services</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>API Management</t>
+          <t>Key Vault Management</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -1663,12 +1663,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Software Services</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Application Performance Monitoring</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -1678,12 +1678,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Software Services</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DevOps / DevSecOps</t>
+          <t>MFA, Conditional Access</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -1693,12 +1693,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Software Services</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Service Registry / Mesh</t>
+          <t>Cookies, Session Management</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -1708,12 +1708,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Software Specifications</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>3rd party components</t>
+          <t>Other / Misc</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -1723,12 +1723,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Software Specifications</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Dependency on external solution or services (SaaS)</t>
+          <t>Project Documentation (diagrams, technical specs…)Describes here the shared files</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -1738,12 +1738,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Software Specifications</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Dependency on on-premises IS</t>
+          <t>Software methodology (DevOps, Agile, CMMI, SAFE…)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -1753,12 +1753,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Software Specifications</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Libraries, SDK, Runtimes</t>
+          <t>Who build?</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -1768,12 +1768,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Software Specifications</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Monolith / Micro-Services</t>
+          <t>Who Run?</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -1783,12 +1783,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Software Specifications</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>OSS Dependencies</t>
+          <t>Maintenance Ops / Operating Model</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -1798,12 +1798,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Software Specifications</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Other / Misc</t>
+          <t>Software Delivery model (N/A, online/SaaS, ISV Setup…)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -1813,12 +1813,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Software Specifications</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Programming Language (Front, Middle, Back, Mobile)</t>
+          <t>Expected release cycles (i.e. updates frequency)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -1828,12 +1828,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Software Specifications</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Software Stack (MEAN, MERN, LAMP...)</t>
+          <t>Update Management (continuous/online, disconnected…)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -1843,12 +1843,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Software Specifications</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Sticky sessions</t>
+          <t>Skilling Plan</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -1858,12 +1858,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Software Specifications</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>libraries (+ associated Licensing model)</t>
+          <t>Other / Misc</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>

--- a/dest/Application Assessment.xlsx
+++ b/dest/Application Assessment.xlsx
@@ -768,7 +768,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#Servers for App hosting (except DB)</t>
+          <t>Virtualization</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -783,7 +783,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>App Location Hosting</t>
+          <t># of Servers</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -798,7 +798,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Container Ready</t>
+          <t>App Location Hosting</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -813,7 +813,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CPU</t>
+          <t>Container Ready</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -828,7 +828,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Disks</t>
+          <t>CPU</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -843,7 +843,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Memory</t>
+          <t>Disks</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -858,7 +858,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>OS</t>
+          <t>Memory</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -873,7 +873,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Other / Misc</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -888,7 +888,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Virtualization</t>
+          <t>Other / Misc</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -948,7 +948,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hybrid Connectivity (on-premises - Cloud)</t>
+          <t>Hybrid Connectivity (MPLS...)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -978,7 +978,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Identity Management for External users</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Certificates</t>
+          <t>Identity Management for Internal users</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Identity Management for External users</t>
+          <t>Certificates</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Identity Management for Internal users</t>
+          <t>Infra Monitoring</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Infra Monitoring</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t># of Servers</t>
+          <t>RDBMS / NoSQL (Software vendor)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t># of Servers</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Analytics</t>
+          <t>SOA (Kafka, RabbitMQ, MQ Series)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cache</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Data Migration</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>File Server (size)</t>
+          <t>Integration Tier (ETL...)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Lambda Architecture</t>
+          <t>File Server (size)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Other / Misc</t>
+          <t>Cache</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>RDBMS / NoSQL (Software vendor)</t>
+          <t>Data Migration</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SOA (Kafka, RabbitMQ, MQ Series)</t>
+          <t>Lambda Architecture</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Integration Tier (ETL, Solution)</t>
+          <t>Other / Misc</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3rd party components</t>
+          <t>Programming Language (Front, Middle, Back, Mobile)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Dependency on external solution or services (SaaS)</t>
+          <t>Software Stack (MEAN, MERN, LAMP...)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Dependency on on-premises IS</t>
+          <t>3rd party components</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>libraries (+ associated Licensing model)</t>
+          <t>Monolith / Micro-Services</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Monolith / Micro-Services</t>
+          <t>Sticky sessions</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sticky sessions</t>
+          <t>OSS Dependencies</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>OSS Dependencies</t>
+          <t>libraries (+ associated Licensing model)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Other / Misc</t>
+          <t>Dependency on external solution or services (SaaS)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Programming Language (Front, Middle, Back, Mobile)</t>
+          <t>Dependency on on-premises IS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Software Stack (MEAN, MERN, LAMP...)</t>
+          <t>Other / Misc</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t># of Messages, calls, requests / days/month/year</t>
+          <t>#Total Users</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>#RPS (Request per seconds)</t>
+          <t>#Simultaneous users</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>#Simultaneous users</t>
+          <t>#RPS (Request per seconds)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>#Total Users</t>
+          <t>Transations / RPS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DB Increase</t>
+          <t># of Messages, calls, requests / days/month/year</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transations / RPS</t>
+          <t>DB Increase</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
